--- a/data/GuangzhouMedicalHospital_features23_no_nan.xlsx
+++ b/data/GuangzhouMedicalHospital_features23_no_nan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://2s9j-my.sharepoint.com/personal/lqingyuan666_2s9j_onmicrosoft_com/Documents/work/health_ai/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/80c2e1f93e20066f/work/health_ai/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="120" documentId="8_{93B10DE3-4358-45D1-B9E2-A9D1545EFA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B733B6FB-1E2B-4B4F-B8DA-A4FF9B85F33B}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="8_{93B10DE3-4358-45D1-B9E2-A9D1545EFA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1ACFBA9B-1F13-4210-B2C4-33E9635F7B9A}"/>
   <bookViews>
-    <workbookView xWindow="8220" yWindow="4380" windowWidth="28800" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6975" yWindow="4305" windowWidth="28800" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="肺癌" sheetId="4" r:id="rId1"/>
@@ -271,7 +271,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -284,10 +284,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -580,7 +576,7 @@
   <dimension ref="A1:BQ115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1047,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" s="6">
         <v>48</v>
@@ -1122,7 +1118,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" s="6">
         <v>65</v>
@@ -1197,7 +1193,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" s="6">
         <v>73</v>
@@ -1272,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" s="6">
         <v>37</v>
@@ -1347,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" s="6">
         <v>56</v>
@@ -1422,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12" s="6">
         <v>39</v>
@@ -1497,7 +1493,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C13" s="6">
         <v>40</v>
@@ -1647,7 +1643,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C15" s="6">
         <v>58</v>
@@ -1722,7 +1718,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C16" s="6">
         <v>42</v>
@@ -1947,7 +1943,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19" s="6">
         <v>45</v>
@@ -2022,7 +2018,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C20" s="6">
         <v>65</v>
@@ -2247,7 +2243,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C23" s="6">
         <v>31</v>
@@ -2472,7 +2468,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C26" s="6">
         <v>54</v>
@@ -2697,7 +2693,7 @@
         <v>1</v>
       </c>
       <c r="B29" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C29" s="6">
         <v>49</v>
@@ -2772,7 +2768,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C30" s="6">
         <v>48</v>
@@ -2847,7 +2843,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C31" s="6">
         <v>65</v>
@@ -2922,7 +2918,7 @@
         <v>1</v>
       </c>
       <c r="B32" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C32" s="6">
         <v>67</v>
@@ -4722,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="B56" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C56" s="6">
         <v>69</v>
@@ -5097,7 +5093,7 @@
         <v>1</v>
       </c>
       <c r="B61" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C61" s="6">
         <v>59</v>
@@ -5322,7 +5318,7 @@
         <v>0</v>
       </c>
       <c r="B64" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C64" s="6">
         <v>62</v>
@@ -5397,7 +5393,7 @@
         <v>0</v>
       </c>
       <c r="B65" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C65" s="6">
         <v>35</v>
@@ -5472,7 +5468,7 @@
         <v>0</v>
       </c>
       <c r="B66" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C66" s="6">
         <v>54</v>
@@ -5547,7 +5543,7 @@
         <v>0</v>
       </c>
       <c r="B67" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C67" s="6">
         <v>38</v>
@@ -5772,7 +5768,7 @@
         <v>0</v>
       </c>
       <c r="B70" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C70" s="6">
         <v>67</v>
@@ -5847,7 +5843,7 @@
         <v>0</v>
       </c>
       <c r="B71" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C71" s="6">
         <v>76</v>
@@ -5922,7 +5918,7 @@
         <v>0</v>
       </c>
       <c r="B72" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C72" s="6">
         <v>50</v>
@@ -5997,7 +5993,7 @@
         <v>0</v>
       </c>
       <c r="B73" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C73" s="6">
         <v>60</v>
@@ -6072,7 +6068,7 @@
         <v>0</v>
       </c>
       <c r="B74" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C74" s="6">
         <v>55</v>
@@ -6297,7 +6293,7 @@
         <v>0</v>
       </c>
       <c r="B77" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C77" s="6">
         <v>54</v>
@@ -6522,7 +6518,7 @@
         <v>0</v>
       </c>
       <c r="B80" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C80" s="6">
         <v>53</v>
@@ -6597,7 +6593,7 @@
         <v>0</v>
       </c>
       <c r="B81" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C81" s="6">
         <v>43</v>
@@ -6747,7 +6743,7 @@
         <v>0</v>
       </c>
       <c r="B83" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C83" s="6">
         <v>69</v>
@@ -6897,7 +6893,7 @@
         <v>0</v>
       </c>
       <c r="B85" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C85" s="6">
         <v>33</v>
@@ -7122,7 +7118,7 @@
         <v>0</v>
       </c>
       <c r="B88" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C88" s="6">
         <v>56</v>
@@ -7197,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="B89" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C89" s="6">
         <v>56</v>
@@ -7722,7 +7718,7 @@
         <v>0</v>
       </c>
       <c r="B96" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C96" s="6">
         <v>59</v>
@@ -7872,7 +7868,7 @@
         <v>0</v>
       </c>
       <c r="B98" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C98" s="6">
         <v>45</v>
@@ -7947,7 +7943,7 @@
         <v>0</v>
       </c>
       <c r="B99" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C99" s="6">
         <v>75</v>
@@ -8097,7 +8093,7 @@
         <v>0</v>
       </c>
       <c r="B101" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C101" s="6">
         <v>56</v>
@@ -8247,7 +8243,7 @@
         <v>0</v>
       </c>
       <c r="B103" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C103" s="6">
         <v>67</v>
@@ -8397,7 +8393,7 @@
         <v>0</v>
       </c>
       <c r="B105" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C105" s="6">
         <v>64</v>
@@ -8547,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="B107" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C107" s="6">
         <v>60</v>
@@ -8622,7 +8618,7 @@
         <v>0</v>
       </c>
       <c r="B108" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C108" s="6">
         <v>61</v>
@@ -8772,7 +8768,7 @@
         <v>0</v>
       </c>
       <c r="B110" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C110" s="6">
         <v>48</v>
@@ -8847,7 +8843,7 @@
         <v>0</v>
       </c>
       <c r="B111" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C111" s="6">
         <v>44</v>
@@ -9072,7 +9068,7 @@
         <v>0</v>
       </c>
       <c r="B114" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C114" s="6">
         <v>57</v>
